--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42993,6 +42993,41 @@
         <v>893300</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>206600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43028,6 +43028,41 @@
         <v>206600</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>540500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43063,6 +43063,41 @@
         <v>540500</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>186400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43098,6 +43098,41 @@
         <v>186400</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>298100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43133,6 +43133,41 @@
         <v>298100</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1784800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43168,6 +43168,41 @@
         <v>1784800</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>859800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43203,6 +43203,41 @@
         <v>859800</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>554500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43238,6 +43238,41 @@
         <v>554500</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>176800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43273,6 +43273,41 @@
         <v>176800</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>402500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43308,6 +43308,41 @@
         <v>402500</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>926600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43343,6 +43343,41 @@
         <v>926600</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>571000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43378,6 +43378,41 @@
         <v>571000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>561400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43413,6 +43413,76 @@
         <v>561400</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1023100</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1612500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43483,6 +43483,76 @@
         <v>1612500</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>626700</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>372500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43553,6 +43553,41 @@
         <v>372500</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>498700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43588,6 +43588,41 @@
         <v>498700</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>351800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43623,6 +43623,41 @@
         <v>351800</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>334400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43658,6 +43658,41 @@
         <v>334400</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1609800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43693,6 +43693,76 @@
         <v>1609800</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>958100</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>650300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43763,6 +43763,41 @@
         <v>650300</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1295500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43798,6 +43798,41 @@
         <v>1295500</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>1206100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2298"/>
+  <dimension ref="A1:I2299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80828,6 +80828,41 @@
         <v>1206100</v>
       </c>
     </row>
+    <row r="2299">
+      <c r="A2299" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2299" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2299" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2299" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2299" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F2299" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G2299" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2299" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2299" t="n">
+        <v>1874100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2299"/>
+  <dimension ref="A1:I2300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80863,6 +80863,41 @@
         <v>1874100</v>
       </c>
     </row>
+    <row r="2300">
+      <c r="A2300" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2300" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2300" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2300" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2300" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F2300" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G2300" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H2300" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="I2300" t="n">
+        <v>1825700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2300"/>
+  <dimension ref="A1:I2301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80898,6 +80898,41 @@
         <v>1825700</v>
       </c>
     </row>
+    <row r="2301">
+      <c r="A2301" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2301" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2301" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2301" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F2301" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G2301" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H2301" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I2301" t="n">
+        <v>1206300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2301"/>
+  <dimension ref="A1:I2302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80933,6 +80933,41 @@
         <v>1206300</v>
       </c>
     </row>
+    <row r="2302">
+      <c r="A2302" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2302" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2302" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2302" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2302" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F2302" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G2302" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H2302" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I2302" t="n">
+        <v>1970500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2302"/>
+  <dimension ref="A1:I2303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80968,6 +80968,41 @@
         <v>1970500</v>
       </c>
     </row>
+    <row r="2303">
+      <c r="A2303" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2303" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2303" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2303" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2303" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F2303" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="G2303" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="H2303" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2303" t="n">
+        <v>1483900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2303"/>
+  <dimension ref="A1:I2304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81003,6 +81003,41 @@
         <v>1483900</v>
       </c>
     </row>
+    <row r="2304">
+      <c r="A2304" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2304" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2304" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2304" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2304" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F2304" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G2304" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2304" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I2304" t="n">
+        <v>691200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2304"/>
+  <dimension ref="A1:I2305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81038,6 +81038,41 @@
         <v>691200</v>
       </c>
     </row>
+    <row r="2305">
+      <c r="A2305" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2305" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2305" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2305" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2305" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F2305" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G2305" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H2305" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="I2305" t="n">
+        <v>752600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2305"/>
+  <dimension ref="A1:I2306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81073,6 +81073,41 @@
         <v>752600</v>
       </c>
     </row>
+    <row r="2306">
+      <c r="A2306" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2306" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2306" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2306" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2306" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="F2306" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G2306" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H2306" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="I2306" t="n">
+        <v>1795700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2306"/>
+  <dimension ref="A1:I2307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81108,6 +81108,41 @@
         <v>1795700</v>
       </c>
     </row>
+    <row r="2307">
+      <c r="A2307" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2307" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2307" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2307" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2307" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="F2307" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G2307" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="H2307" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I2307" t="n">
+        <v>1045600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2307"/>
+  <dimension ref="A1:I2308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81143,6 +81143,41 @@
         <v>1045600</v>
       </c>
     </row>
+    <row r="2308">
+      <c r="A2308" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2308" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2308" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2308" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2308" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F2308" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G2308" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H2308" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I2308" t="n">
+        <v>1252800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2308"/>
+  <dimension ref="A1:I2309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81178,6 +81178,41 @@
         <v>1252800</v>
       </c>
     </row>
+    <row r="2309">
+      <c r="A2309" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2309" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2309" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2309" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2309" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F2309" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G2309" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H2309" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I2309" t="n">
+        <v>6602800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2309"/>
+  <dimension ref="A1:I2310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81213,6 +81213,41 @@
         <v>6602800</v>
       </c>
     </row>
+    <row r="2310">
+      <c r="A2310" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2310" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2310" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2310" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2310" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F2310" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G2310" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H2310" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I2310" t="n">
+        <v>8746300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2310"/>
+  <dimension ref="A1:I2311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81248,6 +81248,41 @@
         <v>8746300</v>
       </c>
     </row>
+    <row r="2311">
+      <c r="A2311" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2311" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2311" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2311" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2311" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F2311" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G2311" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H2311" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I2311" t="n">
+        <v>3816300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2311"/>
+  <dimension ref="A1:I2312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81283,6 +81283,41 @@
         <v>3816300</v>
       </c>
     </row>
+    <row r="2312">
+      <c r="A2312" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2312" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2312" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2312" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2312" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F2312" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G2312" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H2312" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I2312" t="n">
+        <v>3778800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2312"/>
+  <dimension ref="A1:I2313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81318,6 +81318,41 @@
         <v>3778800</v>
       </c>
     </row>
+    <row r="2313">
+      <c r="A2313" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2313" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2313" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2313" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2313" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F2313" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G2313" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H2313" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I2313" t="n">
+        <v>1526300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2522"/>
+  <dimension ref="A1:I2523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88668,6 +88668,41 @@
         <v>1526300</v>
       </c>
     </row>
+    <row r="2523">
+      <c r="A2523" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2523" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2523" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2523" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2523" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F2523" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G2523" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H2523" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I2523" t="n">
+        <v>1664900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2523"/>
+  <dimension ref="A1:I2524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88703,6 +88703,41 @@
         <v>1664900</v>
       </c>
     </row>
+    <row r="2524">
+      <c r="A2524" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2524" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2524" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2524" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2524" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F2524" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G2524" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H2524" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I2524" t="n">
+        <v>3467400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2524"/>
+  <dimension ref="A1:I2525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88738,6 +88738,41 @@
         <v>3467400</v>
       </c>
     </row>
+    <row r="2525">
+      <c r="A2525" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2525" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2525" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2525" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2525" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F2525" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G2525" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H2525" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I2525" t="n">
+        <v>1543500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2525"/>
+  <dimension ref="A1:I2526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88773,6 +88773,41 @@
         <v>1543500</v>
       </c>
     </row>
+    <row r="2526">
+      <c r="A2526" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2526" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2526" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2526" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2526" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F2526" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G2526" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H2526" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I2526" t="n">
+        <v>998000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2526"/>
+  <dimension ref="A1:I2527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88808,6 +88808,41 @@
         <v>998000</v>
       </c>
     </row>
+    <row r="2527">
+      <c r="A2527" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2527" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2527" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2527" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2527" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F2527" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G2527" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H2527" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I2527" t="n">
+        <v>1197900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2527"/>
+  <dimension ref="A1:I2528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88843,6 +88843,41 @@
         <v>1197900</v>
       </c>
     </row>
+    <row r="2528">
+      <c r="A2528" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2528" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2528" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2528" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2528" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F2528" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G2528" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H2528" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I2528" t="n">
+        <v>644400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2528"/>
+  <dimension ref="A1:I2529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88878,6 +88878,41 @@
         <v>644400</v>
       </c>
     </row>
+    <row r="2529">
+      <c r="A2529" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2529" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2529" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2529" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2529" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F2529" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G2529" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H2529" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I2529" t="n">
+        <v>1116100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2529"/>
+  <dimension ref="A1:I2530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88913,6 +88913,41 @@
         <v>1116100</v>
       </c>
     </row>
+    <row r="2530">
+      <c r="A2530" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2530" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2530" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2530" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2530" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F2530" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G2530" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H2530" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I2530" t="n">
+        <v>1678600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2530"/>
+  <dimension ref="A1:I2531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88948,6 +88948,41 @@
         <v>1678600</v>
       </c>
     </row>
+    <row r="2531">
+      <c r="A2531" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2531" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2531" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2531" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2531" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F2531" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G2531" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H2531" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I2531" t="n">
+        <v>914700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2531"/>
+  <dimension ref="A1:I2532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88983,6 +88983,41 @@
         <v>914700</v>
       </c>
     </row>
+    <row r="2532">
+      <c r="A2532" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2532" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2532" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2532" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2532" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F2532" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G2532" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H2532" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I2532" t="n">
+        <v>1621900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2532"/>
+  <dimension ref="A1:I2534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89018,6 +89018,76 @@
         <v>1621900</v>
       </c>
     </row>
+    <row r="2533">
+      <c r="A2533" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2533" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2533" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2533" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2533" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F2533" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G2533" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H2533" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I2533" t="n">
+        <v>3810900</v>
+      </c>
+    </row>
+    <row r="2534">
+      <c r="A2534" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2534" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2534" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2534" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2534" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F2534" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G2534" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H2534" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I2534" t="n">
+        <v>4721400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2534"/>
+  <dimension ref="A1:I2535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89088,6 +89088,41 @@
         <v>4721400</v>
       </c>
     </row>
+    <row r="2535">
+      <c r="A2535" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2535" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2535" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2535" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2535" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F2535" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G2535" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H2535" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I2535" t="n">
+        <v>2248200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2535"/>
+  <dimension ref="A1:I2538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89123,6 +89123,111 @@
         <v>2248200</v>
       </c>
     </row>
+    <row r="2536">
+      <c r="A2536" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2536" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2536" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2536" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2536" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F2536" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G2536" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H2536" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I2536" t="n">
+        <v>1717800</v>
+      </c>
+    </row>
+    <row r="2537">
+      <c r="A2537" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2537" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2537" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2537" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2537" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F2537" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G2537" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H2537" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="I2537" t="n">
+        <v>4633000</v>
+      </c>
+    </row>
+    <row r="2538">
+      <c r="A2538" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2538" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2538" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2538" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2538" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="F2538" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G2538" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H2538" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I2538" t="n">
+        <v>5883500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2538"/>
+  <dimension ref="A1:I2539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89228,6 +89228,41 @@
         <v>5883500</v>
       </c>
     </row>
+    <row r="2539">
+      <c r="A2539" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2539" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2539" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2539" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2539" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F2539" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G2539" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H2539" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="I2539" t="n">
+        <v>3048000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2539"/>
+  <dimension ref="A1:I2540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89263,6 +89263,41 @@
         <v>3048000</v>
       </c>
     </row>
+    <row r="2540">
+      <c r="A2540" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2540" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2540" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2540" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2540" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F2540" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G2540" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H2540" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="I2540" t="n">
+        <v>1114500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7247.xlsx
+++ b/data/7247.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2540"/>
+  <dimension ref="A1:I2543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89298,6 +89298,111 @@
         <v>1114500</v>
       </c>
     </row>
+    <row r="2541">
+      <c r="A2541" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2541" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2541" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2541" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2541" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="F2541" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G2541" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H2541" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I2541" t="n">
+        <v>1784600</v>
+      </c>
+    </row>
+    <row r="2542">
+      <c r="A2542" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2542" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2542" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2542" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2542" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F2542" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G2542" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H2542" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I2542" t="n">
+        <v>919400</v>
+      </c>
+    </row>
+    <row r="2543">
+      <c r="A2543" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2543" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2543" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="D2543" t="inlineStr">
+        <is>
+          <t>SCGM</t>
+        </is>
+      </c>
+      <c r="E2543" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F2543" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G2543" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H2543" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="I2543" t="n">
+        <v>951200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
